--- a/Libros 2DAW.xlsx
+++ b/Libros 2DAW.xlsx
@@ -429,7 +429,7 @@
         <v>Víctor</v>
       </c>
       <c r="I4" t="str">
-        <v>4 €</v>
+        <v>4,17 €</v>
       </c>
     </row>
     <row r="5">
@@ -437,18 +437,24 @@
         <v>Joe</v>
       </c>
       <c r="I5" t="str">
-        <v>4 €</v>
+        <v>4,17 €</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>Juanpisito</v>
       </c>
+      <c r="I6" t="str">
+        <v>4,17 €</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>Pedro</v>
       </c>
+      <c r="I7" t="str">
+        <v>NO</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -462,35 +468,56 @@
       <c r="A9" t="str">
         <v>Isma</v>
       </c>
+      <c r="I9" t="str">
+        <v>4,17 €</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>Jairo</v>
       </c>
+      <c r="I10" t="str">
+        <v>4,17 €</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>Dani</v>
       </c>
+      <c r="I11" t="str">
+        <v>2.38 €</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>Dario</v>
       </c>
+      <c r="I12" t="str">
+        <v>4,17 €</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>Pablo</v>
       </c>
+      <c r="I13" t="str">
+        <v>4,17 €</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>Chema</v>
       </c>
+      <c r="I14" t="str">
+        <v>4,17 €</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>Alfonso</v>
+      </c>
+      <c r="I15" t="str">
+        <v>4,17 €</v>
       </c>
     </row>
   </sheetData>
